--- a/test11.xlsx
+++ b/test11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deva's PC\Documents\GitHub\Non_preemtive_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F426F-310E-4ED8-A862-155FC6991A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA60AB-96BE-4FBF-A4D8-A0CF81093C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3660" yWindow="4725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11385" yWindow="6150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -591,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -605,7 +605,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -703,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -717,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -759,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -773,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -814,15 +814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBE32D7F8BC9434FB37E4E45380C1D53" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="54684c21b13f2a70916b131df1908de4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7153f70d-125b-45ae-a080-607957ba818f" xmlns:ns3="79eab682-894b-4d64-ba1f-457248d54272" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8161572c8ef4cb4c1c1ad76191139081" ns2:_="" ns3:_="">
     <xsd:import namespace="7153f70d-125b-45ae-a080-607957ba818f"/>
@@ -997,6 +988,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1010,14 +1010,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52FA00-CDCF-47C3-92AE-E48E9AD89EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1036,6 +1028,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C464DE-6851-48B9-8860-CE5B7A0A09EC}">
   <ds:schemaRefs>

--- a/test11.xlsx
+++ b/test11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deva's PC\Documents\GitHub\Non_preemtive_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA60AB-96BE-4FBF-A4D8-A0CF81093C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4373404-E839-4A31-BDB5-9851E53E2661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11385" yWindow="6150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="20985" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +814,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="7153f70d-125b-45ae-a080-607957ba818f" xsi:nil="true"/>
+    <TaxCatchAll xmlns="79eab682-894b-4d64-ba1f-457248d54272" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7153f70d-125b-45ae-a080-607957ba818f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBE32D7F8BC9434FB37E4E45380C1D53" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="54684c21b13f2a70916b131df1908de4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7153f70d-125b-45ae-a080-607957ba818f" xmlns:ns3="79eab682-894b-4d64-ba1f-457248d54272" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8161572c8ef4cb4c1c1ad76191139081" ns2:_="" ns3:_="">
     <xsd:import namespace="7153f70d-125b-45ae-a080-607957ba818f"/>
@@ -988,28 +1009,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C464DE-6851-48B9-8860-CE5B7A0A09EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7153f70d-125b-45ae-a080-607957ba818f"/>
+    <ds:schemaRef ds:uri="79eab682-894b-4d64-ba1f-457248d54272"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="7153f70d-125b-45ae-a080-607957ba818f" xsi:nil="true"/>
-    <TaxCatchAll xmlns="79eab682-894b-4d64-ba1f-457248d54272" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7153f70d-125b-45ae-a080-607957ba818f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52FA00-CDCF-47C3-92AE-E48E9AD89EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1026,23 +1045,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C464DE-6851-48B9-8860-CE5B7A0A09EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7153f70d-125b-45ae-a080-607957ba818f"/>
-    <ds:schemaRef ds:uri="79eab682-894b-4d64-ba1f-457248d54272"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test11.xlsx
+++ b/test11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deva's PC\Documents\GitHub\Non_preemtive_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4373404-E839-4A31-BDB5-9851E53E2661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A83C4-F123-4E46-B417-59540E425EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="20985" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2610" windowWidth="20985" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>P1</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>P20</t>
-  </si>
-  <si>
-    <t>Waiting</t>
-  </si>
-  <si>
-    <t>Turnaround</t>
   </si>
 </sst>
 </file>
@@ -126,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,12 +520,8 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -814,6 +810,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ReferenceId xmlns="7153f70d-125b-45ae-a080-607957ba818f" xsi:nil="true"/>
@@ -823,15 +828,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1010,20 +1006,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C464DE-6851-48B9-8860-CE5B7A0A09EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="7153f70d-125b-45ae-a080-607957ba818f"/>
     <ds:schemaRef ds:uri="79eab682-894b-4d64-ba1f-457248d54272"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test11.xlsx
+++ b/test11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deva's PC\Documents\GitHub\Non_preemtive_priority\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Non_preemtive_priority\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A83C4-F123-4E46-B417-59540E425EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E379CD-AA1E-4310-A145-6646C83EF4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2610" windowWidth="20985" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="852" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,19 +495,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10:J11"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -545,13 +545,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -559,13 +559,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -573,13 +573,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -587,13 +587,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -601,13 +601,13 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -810,15 +810,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ReferenceId xmlns="7153f70d-125b-45ae-a080-607957ba818f" xsi:nil="true"/>
@@ -828,6 +819,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,20 +1006,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C464DE-6851-48B9-8860-CE5B7A0A09EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="7153f70d-125b-45ae-a080-607957ba818f"/>
     <ds:schemaRef ds:uri="79eab682-894b-4d64-ba1f-457248d54272"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F275A-99E1-463C-9C89-070D3EA0DF24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
